--- a/data_ventures_lean_canvas.xlsx
+++ b/data_ventures_lean_canvas.xlsx
@@ -10,31 +10,15 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="A5">
-      <text>
-        <t xml:space="preserve">So that last bullet point I think is your lead item - but are you going to be able to work with all Govt IP or just Stats IP? Where is your boundary? Think about if someone who had zero idea what you did picked this document up, would they understand what you were doing just from reading this? Or would they have questions?
-	-David Cormack</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t>DV lean canvas: Data Ventures v1.0</t>
+    <t>DV lean canvas: Data Ventures v1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">What you WILL get from reading this Lean Canvas:
+    <t xml:space="preserve">What you WILL get from reading this lean canvas:
 An idea of the assumptions we are working in, what is the reason for us existing, and what groups of people we are looking to work with right now. All to be tested further.
-What you WILL NOT get from reading this Lean Canvas:
+What you WILL NOT get from reading this lean canvas:
 It won't describe what ventures we will be focusing on testing, validating and launching, instead this has a focus around the parent that helps those children grow from. The individual ventures will have their own lean canvas which we will release.
 </t>
   </si>
@@ -54,17 +38,18 @@
     <t>Customer segments</t>
   </si>
   <si>
-    <t xml:space="preserve">There is Government IP that is being under utilised and if private / NGO / iwi partnered with government, it could create opportunities.
-Government often doesn't have a front door/clear channel for parties with commercial opportunities to contact and engage.
-Government and private / NGO / iwi sectors aren't working in a partnership as best as they could. Often we find they are working in a supplier and client relationship where IP ownership is allocated to government in an exclusivity for NZ only.
+    <t xml:space="preserve">There is Stats IP that is being under utilised and if private / NGO / iwi partnered with Stats NZ, it could create opportunities.
+Stats NZ doesn't have clear a front door/clear channel for parties with commercial opportunities to contact and engage.
+Stats NZ and private / NGO / iwi sectors aren't working in a partnership as best as they could. Often we find they are working in a supplier and client relationship where IP ownership is allocated to government in an exclusivity for NZ only.
 </t>
   </si>
   <si>
-    <t>Develop a pipeline and processes to identify venture opportunities, validate market / product fit externally and to discover partners who can build these products / services with us using a combination of private and public IP. 
+    <t>Develop a pipeline and processes to identify venture opportunities, validate market / product fit externally and to discover partners who can build these products / services with us using private and public IP. 
 This becomes not only a pipeline for Stats NZ, it becomes a pipeline for partners looking for opportunities, investors / sponsors looking for due diligence and potential customers for ventures.</t>
   </si>
   <si>
-    <t>We are a neutral and trusted party investigating joint commercial / non-commercial ventures to  build with others, and take them to places that a solely private partnership is normally unable to. Not only will people do business with the newly formed partnerships because Data Ventures representing Stats NZ is one of the parties, we are able to bring a wide range of expertise from Stats NZ and the IP Stats NZ has created with us.</t>
+    <t>Data Ventures has a government mandate through Stats NZ to partner with public and private organisations to prototype business models that are fast-to-market and designed to be self-sustaining.
+We are a neutral and trusted party investigating joint commercial / non-commercial ventures to build with others, and take them to places that a solely private partnership is normally unable to. Not only will people do business with the newly formed partnerships because Data Ventures representing Stats NZ is one of the parties. from Stats NZ and the IP Stats NZ has created with us.</t>
   </si>
   <si>
     <t>Our balance of business, government and data expertise, combined with the flexibility to experiment.
@@ -123,7 +108,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Economic value generated by Data Ventures and its ventures.
+    <t xml:space="preserve">Value generated by Data Ventures and its ventures.
 Team wellbeing inside of Data Ventures.
 External awareness/perception of Data Ventures.
 12 month goals:
@@ -137,16 +122,16 @@
   <si>
     <t>Our networks (incl Minister).
 Media/comms (internal and external).
-Investment Funds.
+Investment funds.
 Small companies with early/unproven products.
-Large companies looking for assurance from us doing due diligence to work with a small data science company.
+Large companies looking for assurances behind their products.
 Non-commercial opportunities that just require some resource/expertise.</t>
   </si>
   <si>
-    <t xml:space="preserve">For the core running of Data Ventures, the costs will come from the core team and some underlying BAU costs (such as software subscriptions, stationary, toilet paper, etc.).
+    <t xml:space="preserve">For the core running of Data Ventures, the costs will come from the core team and some underlying business as usual (BAU) costs (such as software subscriptions, stationary, toilet paper, etc.).
 Per venture investments will be made through the proof of concept / MVP (minimum viable product) stage, depending on the requirements of technology, people and expertise. We have a set average we intend to stick with as a benchmark.    
 As a whole we are aiming to acquire new non-Stats NZ datasets for others to use (primarily doing procurement of a range of currently unavailable private sector data for government agencies who require access to these). This will require us to set up a place to store it separately to the Stats NZ IDI. We will start with a secure but simple environment initially and grow one or more partnerships with existing providers a platform as these platforms become commoditised.                
-Technology costs (marketing / hosting / tools &amp; apps).              </t>
+Technology costs (marketing / hosting / tools and apps).              </t>
   </si>
   <si>
     <t>Revenue: royalties / licensing resulting from joint ventures.
@@ -28336,7 +28321,6 @@
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data_ventures_lean_canvas.xlsx
+++ b/data_ventures_lean_canvas.xlsx
@@ -31,32 +31,32 @@
     <t>Customer segments</t>
   </si>
   <si>
-    <t>Getting access to data is not easy. This means that there are gaps in the data.
+    <t>Data drived so many policy decisions and solutions. Getting access to data can be tricky. This means that there are gaps in the data.
 Currently, the only option is to get one-off access from one source. This is expensive and time consuming for everyone.
 There are very few trusted, neutral and impartial parties that can bring open government and private data together.
-When providing data to government, there is a risk that the government agency receiving the data can react with legaslitive and regulatory changes impacting the data providers heavily.</t>
+When providing data to government, there is a risk that the government agency receiving the data can react with legaslative and regulatory changes impacting the data providers heavily.</t>
   </si>
   <si>
     <t>A commercially focused Stats NZ business unit allows us to: 
 * give value back to the data suppliers, 
 * bring competing data sets together for the first time, 
 * be trusted to look after the privacy of the data sets, protecting all parties involved.
-Data suppliers will provide us with data. We will standardise, confidentialise, and provided assurances to it and then make it accessible according to the various maturity levels of the customers (it could be a data stream, or it could be a basic web application). Customers can provide feedback to help us improve.
+Data suppliers will provide us with data. We will standardise, confidentialise, and provide assurances to it and then make it accessible according to the various maturity levels of the customers (it could be a data stream, or it could be a basic web application). Customers can provide feedback to help us improve.
 We will bring together open government data and private commercial data to create new and improved value.</t>
   </si>
   <si>
-    <t xml:space="preserve">We have a government mandate to test how we'd work with other public and private organisations quickly and can pay for itself.
-We are neutral and trusted party looking into how we can build products and services that private partnerships can't. 
-People will do business with Data Ventures because of the Stats NZ's brand, reputation, and expertise. Stats NZ is not an agency to create regulation or legislation, this is where the drive for trust comes in.
+    <t xml:space="preserve">We have a government mandate to test how we'd work with other public and private organisations quickly and pay for itself.
+We are a neutral and trusted party looking into how we can build products and services that private partnerships can't. 
+People will do business with Data Ventures because of the Stats NZ brand, reputation, and expertise. Stats NZ is not an agency to create regulation or legislation, this is where the drive for trust comes in.
 We will provide access to datasets that are previously too expensive, or inaccessible for customers to get themselves.
 We bring together competing datasets and apply models that improves the overall quality and accuracy of the datasets.
 Customers trust in our expertise to clean and anonymise data without losing value.
 </t>
   </si>
   <si>
-    <t>We have the right mix of business, government and data expertise, and we are allow to experiment.
-We are trusted by organisations to be impartial and transparent that allows us to be an intermediary for partnerships and data.
-We provide robustand accurate data that keeps integrity and privacy standards that organisations expect from Stats NZ but with a commercial focus. 
+    <t>We have the right mix of business, government and data expertise, and we are allowed to experiment.
+We are trusted by organisations to be impartial and transparent. This allows us to be an intermediary for partnerships and data.
+We provide robust and accurate data that keeps integrity and privacy standards that organisations expect from Stats NZ but with a commercial focus. 
 We have access to Stats NZ unique expertise in data, data management and data processing.</t>
   </si>
   <si>

--- a/data_ventures_lean_canvas.xlsx
+++ b/data_ventures_lean_canvas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>DV lean canvas: Data Ventures</t>
   </si>
@@ -31,17 +31,17 @@
     <t>Customer segments</t>
   </si>
   <si>
-    <t>Data drived so many policy decisions and solutions. Getting access to data can be tricky. This means that there are gaps in the data.
+    <t>Data drives so many policy decisions and solutions. Getting access to data can be tricky. This means that there are gaps in the data, especially data used to measure performance of investments over time.
 Currently, the only option is to get one-off access from one source. This is expensive and time consuming for everyone.
 There are very few trusted, neutral and impartial parties that can bring open government and private data together.
-When providing data to government, there is a risk that the government agency receiving the data can react with legaslative and regulatory changes impacting the data providers heavily.</t>
+When providing data to government, there is a risk that the government agency receiving the data can react with legislative and regulatory changes impacting the data providers heavily.</t>
   </si>
   <si>
     <t>A commercially focused Stats NZ business unit allows us to: 
 * give value back to the data suppliers, 
 * bring competing data sets together for the first time, 
 * be trusted to look after the privacy of the data sets, protecting all parties involved.
-Data suppliers will provide us with data. We will standardise, confidentialise, and provide assurances to it and then make it accessible according to the various maturity levels of the customers (it could be a data stream, or it could be a basic web application). Customers can provide feedback to help us improve.
+Data suppliers will provide us with aggregated data based on the use case. We will standardise, confidentialised, and provide assurances to it and then make it accessible according to the various maturity levels of the customers (it could be a data stream, or it could be a basic web application). Customers can provide feedback to help us improve.
 We will bring together open government data and private commercial data to create new and improved value.</t>
   </si>
   <si>
@@ -65,7 +65,8 @@
 Crown Entities
 Iwi
 Council-controlled organisations
-Council-controlled trading organisations</t>
+Council-controlled trading organisations
+Other customer groups discovered through the pilot</t>
   </si>
   <si>
     <t>Existing alternatives</t>
@@ -115,7 +116,7 @@
     <t xml:space="preserve">The core costs of running of Data Ventures will come from the core team and some business as usual (BAU) costs (such as software subscriptions, stationary, toilet paper, etc.) and hiring a team.
 We have levers in the business model which attributes to the running costs of the data brokerage model:
 * Short term return to data providers, a fixed amount (either annual or one off) that we provide to offset their initial investment on the work required to shape/process the data sets we require, i.e. to create certain anonymising and classifications based on the data
-* Long term return to data providers, a % share of revenue of the use case.
+* Long term return to data providers, a % share of revenue of the use case, access to the aggregated dataset, leverage of DV market research as a value add channel
 Marketing and PR are essential to managing perceptions and ensuring stakeholders are appropriately kept up to date. If we get this wrong,  people assume we are doing bad things (which we aren't) e.g. selling Stats NZ data.
 Technology costs (marketing / hosting / tools and apps).              </t>
   </si>
@@ -124,6 +125,15 @@
 Two revenue streams, monthly subscriptions from products and services based on the data brokerage model. One-off on demand customers are for specific use cases, such as Civil Defense in an emergency. This is not a standard or open offering.
 Environment/Economic returns: Unlocking data sets normally unobtainable to allow more beneficial decisions impacting Aotearoa New Zealand.
 Social returns: 1+1 Model; allow smaller customers to be able to afford access to the data sets, such as pricing higher for customers with larger allocations of budget/cash to then offset. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scoring
+Effort: 6 - Enterprise sales in a condensed period of time and the funding cycle associated with government. Limitation in our complexity due to limiting our sales channel to govt only
+Acquisition:  6 - We have developed an operating model that considers what's in it for the data providers, DV and the public benefits. It's a case of using this now to develop any further relationships for new and existing data providers for future products. We will have to do some acquisition of either internal resources or contractors or seconded but either way it's not that hard
+Risk: 6 - We have mitigation plans of things we have control of. The risk associated is through lack of control over third parties.
+Complexity: 6 - Unknown complexities around long term commercial arrangements between DV and customers and DV and data providers.
+Value: 8 - DV views the value to bit high, but customers and data providers need help to understand that value.
 </t>
   </si>
 </sst>
@@ -305,9 +315,15 @@
         <v>20</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A7:E7"/>
   </mergeCells>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
